--- a/parameter_search_results/random_search_lineralregression.xlsx
+++ b/parameter_search_results/random_search_lineralregression.xlsx
@@ -512,16 +512,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01989660263061523</v>
+        <v>0.02512502670288086</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008752819276317672</v>
+        <v>0.006049756484983032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001851797103881836</v>
+        <v>0.001919889450073242</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000507013104619435</v>
+        <v>0.0005634413792757858</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -561,16 +561,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01875662803649902</v>
+        <v>0.02017650604248047</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004370746348424237</v>
+        <v>0.002305665728723449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001737022399902344</v>
+        <v>0.002575016021728516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005021765339076677</v>
+        <v>0.0005520395203893169</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -610,16 +610,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.008798408508300781</v>
+        <v>0.007511472702026368</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000467644229255105</v>
+        <v>0.001543595073945575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002368402481079101</v>
+        <v>0.002344799041748047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003555759821499159</v>
+        <v>9.578736357217356e-05</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -659,16 +659,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005028247833251953</v>
+        <v>0.003621864318847656</v>
       </c>
       <c r="B5" t="n">
-        <v>9.358589792931186e-05</v>
+        <v>0.0005495860593612247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001869058609008789</v>
+        <v>0.001549386978149414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002919314770599041</v>
+        <v>0.0003456076972841036</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
